--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.022820.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.022820.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2285,12 +2285,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2369,12 +2369,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2625,12 +2625,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2965,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3007,12 +3007,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3725,12 +3725,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4145,12 +4145,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4565,12 +4565,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4649,12 +4649,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5245,12 +5245,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5329,12 +5329,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5497,12 +5497,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5669,12 +5669,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6093,12 +6093,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6177,12 +6177,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6597,12 +6597,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6765,12 +6765,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6849,12 +6849,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7101,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7647,12 +7647,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10343,12 +10343,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10637,12 +10637,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10679,12 +10679,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12023,12 +12023,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12149,12 +12149,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12275,12 +12275,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12443,12 +12443,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13123,12 +13123,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13165,12 +13165,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13379,12 +13379,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13715,12 +13715,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14177,12 +14177,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14219,12 +14219,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14765,12 +14765,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15143,12 +15143,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15269,12 +15269,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15899,12 +15899,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16151,12 +16151,12 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16193,12 +16193,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
